--- a/src/main/java/com/SwagLabs/testdata/LoginGuru1.xlsx
+++ b/src/main/java/com/SwagLabs/testdata/LoginGuru1.xlsx
@@ -32,10 +32,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>venamAs</t>
+    <t>mngr541440</t>
   </si>
   <si>
-    <t>mngr532023</t>
+    <t>ypAbyma</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,10 +382,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
